--- a/data/trans_orig/P6515-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P6515-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FF1A5A1F-2FFD-4162-9615-82E7632D8CD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{03E72334-266B-4CAD-8D50-E5E35DE5265E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{736F641E-85C7-4B4F-9C0E-542E4AA839AA}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4117A3A6-4A21-4ED8-BE21-12FD949DD13F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="317">
   <si>
     <t>Población según la conducción de vehículos durante las tareas de su trabajo en 2007 (Tasa respuesta: 42,96%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>63,35%</t>
   </si>
   <si>
-    <t>55,68%</t>
-  </si>
-  <si>
-    <t>71,29%</t>
+    <t>54,95%</t>
+  </si>
+  <si>
+    <t>70,25%</t>
   </si>
   <si>
     <t>93,32%</t>
   </si>
   <si>
-    <t>86,85%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
+    <t>86,84%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
   </si>
   <si>
     <t>75,45%</t>
   </si>
   <si>
-    <t>69,67%</t>
-  </si>
-  <si>
-    <t>80,33%</t>
+    <t>69,49%</t>
+  </si>
+  <si>
+    <t>80,47%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -104,880 +104,886 @@
     <t>20,06%</t>
   </si>
   <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>27,34%</t>
   </si>
   <si>
     <t>4,77%</t>
   </si>
   <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>52,14%</t>
+  </si>
+  <si>
+    <t>45,53%</t>
+  </si>
+  <si>
+    <t>58,77%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
+  </si>
+  <si>
+    <t>84,94%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>64,82%</t>
+  </si>
+  <si>
+    <t>59,66%</t>
+  </si>
+  <si>
+    <t>69,63%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>72,38%</t>
+  </si>
+  <si>
+    <t>65,72%</t>
+  </si>
+  <si>
+    <t>78,57%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>87,23%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>79,85%</t>
+  </si>
+  <si>
+    <t>74,72%</t>
+  </si>
+  <si>
+    <t>84,1%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>66,37%</t>
+  </si>
+  <si>
+    <t>59,79%</t>
+  </si>
+  <si>
+    <t>71,98%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>76,36%</t>
+  </si>
+  <si>
+    <t>71,58%</t>
+  </si>
+  <si>
+    <t>80,49%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>70,66%</t>
+  </si>
+  <si>
+    <t>61,07%</t>
+  </si>
+  <si>
+    <t>78,7%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>79,76%</t>
+  </si>
+  <si>
+    <t>72,62%</t>
+  </si>
+  <si>
+    <t>85,78%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>22,21%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>65,94%</t>
+  </si>
+  <si>
+    <t>58,52%</t>
+  </si>
+  <si>
+    <t>73,66%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>87,5%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>75,66%</t>
+  </si>
+  <si>
+    <t>69,73%</t>
+  </si>
+  <si>
+    <t>81,01%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>67,91%</t>
+  </si>
+  <si>
+    <t>62,33%</t>
+  </si>
+  <si>
+    <t>73,07%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>90,5%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>77,42%</t>
+  </si>
+  <si>
+    <t>73,06%</t>
+  </si>
+  <si>
+    <t>80,76%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>63,68%</t>
+  </si>
+  <si>
+    <t>59,05%</t>
+  </si>
+  <si>
+    <t>68,23%</t>
+  </si>
+  <si>
+    <t>88,97%</t>
+  </si>
+  <si>
+    <t>84,19%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
+  </si>
+  <si>
+    <t>72,3%</t>
+  </si>
+  <si>
+    <t>68,76%</t>
+  </si>
+  <si>
+    <t>75,74%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>64,47%</t>
+  </si>
+  <si>
+    <t>62,29%</t>
+  </si>
+  <si>
+    <t>66,76%</t>
+  </si>
+  <si>
+    <t>92,71%</t>
+  </si>
+  <si>
+    <t>90,98%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>74,36%</t>
+  </si>
+  <si>
+    <t>72,57%</t>
+  </si>
+  <si>
+    <t>75,9%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
     <t>1,76%</t>
   </si>
   <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>52,14%</t>
-  </si>
-  <si>
-    <t>45,61%</t>
-  </si>
-  <si>
-    <t>58,35%</t>
-  </si>
-  <si>
-    <t>91,25%</t>
-  </si>
-  <si>
-    <t>85,42%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>64,82%</t>
-  </si>
-  <si>
-    <t>59,99%</t>
-  </si>
-  <si>
-    <t>70,41%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>27,08%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>72,38%</t>
-  </si>
-  <si>
-    <t>65,35%</t>
-  </si>
-  <si>
-    <t>78,19%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>87,39%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>79,85%</t>
-  </si>
-  <si>
-    <t>74,72%</t>
-  </si>
-  <si>
-    <t>84,05%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>66,37%</t>
-  </si>
-  <si>
-    <t>60,26%</t>
-  </si>
-  <si>
-    <t>71,94%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>87,58%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>76,36%</t>
-  </si>
-  <si>
-    <t>71,67%</t>
-  </si>
-  <si>
-    <t>80,52%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>70,66%</t>
-  </si>
-  <si>
-    <t>62,54%</t>
-  </si>
-  <si>
-    <t>79,37%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>79,76%</t>
-  </si>
-  <si>
-    <t>72,26%</t>
-  </si>
-  <si>
-    <t>85,68%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>65,94%</t>
-  </si>
-  <si>
-    <t>57,28%</t>
-  </si>
-  <si>
-    <t>73,09%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>86,16%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>75,66%</t>
-  </si>
-  <si>
-    <t>69,63%</t>
-  </si>
-  <si>
-    <t>80,63%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>67,91%</t>
-  </si>
-  <si>
-    <t>62,45%</t>
-  </si>
-  <si>
-    <t>72,7%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>90,46%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>77,42%</t>
-  </si>
-  <si>
-    <t>73,45%</t>
-  </si>
-  <si>
-    <t>80,81%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>63,68%</t>
-  </si>
-  <si>
-    <t>59,0%</t>
-  </si>
-  <si>
-    <t>67,97%</t>
-  </si>
-  <si>
-    <t>88,97%</t>
-  </si>
-  <si>
-    <t>84,16%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>72,3%</t>
-  </si>
-  <si>
-    <t>68,6%</t>
-  </si>
-  <si>
-    <t>75,56%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>64,47%</t>
-  </si>
-  <si>
-    <t>62,39%</t>
-  </si>
-  <si>
-    <t>66,8%</t>
-  </si>
-  <si>
-    <t>92,71%</t>
-  </si>
-  <si>
-    <t>90,8%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>74,36%</t>
-  </si>
-  <si>
-    <t>72,65%</t>
-  </si>
-  <si>
-    <t>75,95%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
+    <t>2,71%</t>
   </si>
   <si>
     <t>5,61%</t>
   </si>
   <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
+    <t>4,78%</t>
   </si>
   <si>
     <t>13,57%</t>
   </si>
   <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
   </si>
   <si>
     <t>2,67%</t>
   </si>
   <si>
-    <t>3,92%</t>
+    <t>3,89%</t>
   </si>
   <si>
     <t>9,75%</t>
   </si>
   <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
+    <t>8,76%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1392,7 +1398,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BBF0710-8ACE-4133-8245-C0E22C538428}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A83ED1B8-A8AD-4F10-841C-1C45F013288E}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1800,7 +1806,7 @@
         <v>248</v>
       </c>
       <c r="N9" s="7">
-        <v>259500</v>
+        <v>259499</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>57</v>
@@ -2004,7 +2010,7 @@
         <v>378</v>
       </c>
       <c r="N13" s="7">
-        <v>400332</v>
+        <v>400331</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>49</v>
@@ -2213,13 +2219,13 @@
         <v>26547</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2275,7 +2281,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2287,13 +2293,13 @@
         <v>148377</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H19" s="7">
         <v>127</v>
@@ -2302,10 +2308,10 @@
         <v>126248</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>124</v>
+        <v>15</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>125</v>
@@ -2649,7 +2655,7 @@
         <v>171</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>172</v>
@@ -2852,13 +2858,13 @@
         <v>20641</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>98</v>
+        <v>192</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H30" s="7">
         <v>3</v>
@@ -2867,13 +2873,13 @@
         <v>2926</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M30" s="7">
         <v>22</v>
@@ -2882,13 +2888,13 @@
         <v>23567</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2903,13 +2909,13 @@
         <v>16712</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>101</v>
+        <v>202</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="H31" s="7">
         <v>2</v>
@@ -2918,13 +2924,13 @@
         <v>2063</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>34</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="M31" s="7">
         <v>18</v>
@@ -2933,13 +2939,13 @@
         <v>18775</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2954,13 +2960,13 @@
         <v>15788</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>153</v>
+        <v>210</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -2975,7 +2981,7 @@
         <v>35</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="M32" s="7">
         <v>16</v>
@@ -2984,13 +2990,13 @@
         <v>15788</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3046,7 +3052,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -3058,13 +3064,13 @@
         <v>227425</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="H34" s="7">
         <v>159</v>
@@ -3073,13 +3079,13 @@
         <v>170914</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="M34" s="7">
         <v>373</v>
@@ -3088,13 +3094,13 @@
         <v>398339</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3109,13 +3115,13 @@
         <v>43694</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="H35" s="7">
         <v>3</v>
@@ -3124,13 +3130,13 @@
         <v>3127</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="M35" s="7">
         <v>43</v>
@@ -3139,13 +3145,13 @@
         <v>46821</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3160,13 +3166,13 @@
         <v>15517</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="H36" s="7">
         <v>1</v>
@@ -3175,13 +3181,13 @@
         <v>932</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>34</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="M36" s="7">
         <v>15</v>
@@ -3190,13 +3196,13 @@
         <v>16448</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>237</v>
+        <v>25</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3211,13 +3217,13 @@
         <v>48262</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="H37" s="7">
         <v>4</v>
@@ -3226,13 +3232,13 @@
         <v>4672</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="M37" s="7">
         <v>52</v>
@@ -3241,13 +3247,13 @@
         <v>52934</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>177</v>
+        <v>248</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3303,7 +3309,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -3315,13 +3321,13 @@
         <v>293405</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="H39" s="7">
         <v>202</v>
@@ -3330,13 +3336,13 @@
         <v>211790</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="M39" s="7">
         <v>483</v>
@@ -3345,13 +3351,13 @@
         <v>505196</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3366,13 +3372,13 @@
         <v>58328</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>224</v>
+        <v>261</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="H40" s="7">
         <v>9</v>
@@ -3381,13 +3387,13 @@
         <v>8953</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="M40" s="7">
         <v>67</v>
@@ -3396,13 +3402,13 @@
         <v>67281</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>177</v>
+        <v>267</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3417,13 +3423,13 @@
         <v>37285</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>264</v>
+        <v>177</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="H41" s="7">
         <v>6</v>
@@ -3432,13 +3438,13 @@
         <v>6263</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>243</v>
+        <v>272</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="M41" s="7">
         <v>45</v>
@@ -3447,13 +3453,13 @@
         <v>43549</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>73</v>
+        <v>275</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3468,13 +3474,13 @@
         <v>71716</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="H42" s="7">
         <v>10</v>
@@ -3483,13 +3489,13 @@
         <v>11035</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>274</v>
+        <v>32</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="M42" s="7">
         <v>80</v>
@@ -3498,13 +3504,13 @@
         <v>82752</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3572,13 +3578,13 @@
         <v>1224310</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="H44" s="7">
         <v>907</v>
@@ -3587,13 +3593,13 @@
         <v>948825</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="M44" s="7">
         <v>2074</v>
@@ -3602,13 +3608,13 @@
         <v>2173135</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3623,13 +3629,13 @@
         <v>271153</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="H45" s="7">
         <v>29</v>
@@ -3638,13 +3644,13 @@
         <v>29248</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="M45" s="7">
         <v>289</v>
@@ -3653,13 +3659,13 @@
         <v>300401</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -3674,13 +3680,13 @@
         <v>145880</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>298</v>
+        <v>237</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="H46" s="7">
         <v>18</v>
@@ -3689,13 +3695,13 @@
         <v>17987</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>25</v>
+        <v>305</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>301</v>
+        <v>196</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="M46" s="7">
         <v>160</v>
@@ -3704,13 +3710,13 @@
         <v>163867</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>305</v>
+        <v>135</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3725,13 +3731,13 @@
         <v>257611</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="H47" s="7">
         <v>25</v>
@@ -3740,13 +3746,13 @@
         <v>27356</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>260</v>
+        <v>229</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="M47" s="7">
         <v>274</v>
@@ -3755,13 +3761,13 @@
         <v>284967</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>313</v>
+        <v>83</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3803,7 +3809,7 @@
         <v>2797</v>
       </c>
       <c r="N48" s="7">
-        <v>2922369</v>
+        <v>2922370</v>
       </c>
       <c r="O48" s="7" t="s">
         <v>49</v>
@@ -3817,7 +3823,7 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6515-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P6515-Provincia-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{03E72334-266B-4CAD-8D50-E5E35DE5265E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1091E64F-550A-493C-AFA1-AA44C07BE370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4117A3A6-4A21-4ED8-BE21-12FD949DD13F}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6B6A74E9-ECC5-4C69-BC66-8F73725E5289}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -74,916 +74,916 @@
     <t>63,35%</t>
   </si>
   <si>
-    <t>54,95%</t>
+    <t>55,24%</t>
+  </si>
+  <si>
+    <t>70,34%</t>
+  </si>
+  <si>
+    <t>93,32%</t>
+  </si>
+  <si>
+    <t>86,49%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>75,45%</t>
+  </si>
+  <si>
+    <t>69,61%</t>
+  </si>
+  <si>
+    <t>80,22%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>52,14%</t>
+  </si>
+  <si>
+    <t>46,33%</t>
+  </si>
+  <si>
+    <t>58,87%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
+  </si>
+  <si>
+    <t>84,68%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>64,82%</t>
+  </si>
+  <si>
+    <t>59,48%</t>
+  </si>
+  <si>
+    <t>69,29%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>26,51%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>72,38%</t>
+  </si>
+  <si>
+    <t>65,02%</t>
+  </si>
+  <si>
+    <t>78,04%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>87,28%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>79,85%</t>
+  </si>
+  <si>
+    <t>74,8%</t>
+  </si>
+  <si>
+    <t>84,24%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>66,37%</t>
+  </si>
+  <si>
+    <t>59,63%</t>
+  </si>
+  <si>
+    <t>72,58%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>87,03%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>76,36%</t>
+  </si>
+  <si>
+    <t>71,83%</t>
+  </si>
+  <si>
+    <t>80,46%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>70,66%</t>
+  </si>
+  <si>
+    <t>61,65%</t>
+  </si>
+  <si>
+    <t>78,94%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>79,76%</t>
+  </si>
+  <si>
+    <t>85,41%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>65,94%</t>
+  </si>
+  <si>
+    <t>57,89%</t>
+  </si>
+  <si>
+    <t>72,54%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>86,65%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>75,66%</t>
   </si>
   <si>
     <t>70,25%</t>
   </si>
   <si>
-    <t>93,32%</t>
-  </si>
-  <si>
-    <t>86,84%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>75,45%</t>
-  </si>
-  <si>
-    <t>69,49%</t>
-  </si>
-  <si>
-    <t>80,47%</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>27,34%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>8,54%</t>
+    <t>81,09%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>67,91%</t>
+  </si>
+  <si>
+    <t>61,93%</t>
+  </si>
+  <si>
+    <t>72,8%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>90,91%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>77,42%</t>
+  </si>
+  <si>
+    <t>73,64%</t>
+  </si>
+  <si>
+    <t>81,25%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>63,68%</t>
+  </si>
+  <si>
+    <t>59,15%</t>
+  </si>
+  <si>
+    <t>68,37%</t>
+  </si>
+  <si>
+    <t>88,97%</t>
+  </si>
+  <si>
+    <t>84,11%</t>
+  </si>
+  <si>
+    <t>92,59%</t>
+  </si>
+  <si>
+    <t>72,3%</t>
+  </si>
+  <si>
+    <t>68,81%</t>
+  </si>
+  <si>
+    <t>75,65%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
   </si>
   <si>
     <t>4,64%</t>
   </si>
   <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>52,14%</t>
-  </si>
-  <si>
-    <t>45,53%</t>
-  </si>
-  <si>
-    <t>58,77%</t>
-  </si>
-  <si>
-    <t>91,25%</t>
-  </si>
-  <si>
-    <t>84,94%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>64,82%</t>
-  </si>
-  <si>
-    <t>59,66%</t>
-  </si>
-  <si>
-    <t>69,63%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>26,3%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>72,38%</t>
-  </si>
-  <si>
-    <t>65,72%</t>
-  </si>
-  <si>
-    <t>78,57%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>87,23%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>79,85%</t>
-  </si>
-  <si>
-    <t>74,72%</t>
-  </si>
-  <si>
-    <t>84,1%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>66,37%</t>
-  </si>
-  <si>
-    <t>59,79%</t>
-  </si>
-  <si>
-    <t>71,98%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>76,36%</t>
-  </si>
-  <si>
-    <t>71,58%</t>
-  </si>
-  <si>
-    <t>80,49%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>70,66%</t>
-  </si>
-  <si>
-    <t>61,07%</t>
-  </si>
-  <si>
-    <t>78,7%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>79,76%</t>
-  </si>
-  <si>
-    <t>72,62%</t>
-  </si>
-  <si>
-    <t>85,78%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>65,94%</t>
-  </si>
-  <si>
-    <t>58,52%</t>
-  </si>
-  <si>
-    <t>73,66%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>87,5%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>75,66%</t>
-  </si>
-  <si>
-    <t>69,73%</t>
-  </si>
-  <si>
-    <t>81,01%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>67,91%</t>
-  </si>
-  <si>
-    <t>62,33%</t>
-  </si>
-  <si>
-    <t>73,07%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>90,5%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>77,42%</t>
-  </si>
-  <si>
-    <t>73,06%</t>
-  </si>
-  <si>
-    <t>80,76%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>63,68%</t>
-  </si>
-  <si>
-    <t>59,05%</t>
-  </si>
-  <si>
-    <t>68,23%</t>
-  </si>
-  <si>
-    <t>88,97%</t>
-  </si>
-  <si>
-    <t>84,19%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
-  </si>
-  <si>
-    <t>72,3%</t>
-  </si>
-  <si>
-    <t>68,76%</t>
-  </si>
-  <si>
-    <t>75,74%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
+    <t>2,25%</t>
   </si>
   <si>
     <t>11,84%</t>
   </si>
   <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
   </si>
   <si>
     <t>64,47%</t>
   </si>
   <si>
-    <t>62,29%</t>
-  </si>
-  <si>
-    <t>66,76%</t>
+    <t>62,28%</t>
+  </si>
+  <si>
+    <t>66,78%</t>
   </si>
   <si>
     <t>92,71%</t>
   </si>
   <si>
-    <t>90,98%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
   </si>
   <si>
     <t>74,36%</t>
   </si>
   <si>
-    <t>72,57%</t>
-  </si>
-  <si>
-    <t>75,9%</t>
+    <t>72,75%</t>
+  </si>
+  <si>
+    <t>75,88%</t>
   </si>
   <si>
     <t>14,28%</t>
   </si>
   <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
   </si>
   <si>
     <t>2,86%</t>
   </si>
   <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
   </si>
   <si>
     <t>10,28%</t>
   </si>
   <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
   </si>
   <si>
     <t>1,76%</t>
   </si>
   <si>
-    <t>2,71%</t>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
   </si>
   <si>
     <t>5,61%</t>
   </si>
   <si>
-    <t>4,78%</t>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
   </si>
   <si>
     <t>13,57%</t>
   </si>
   <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
   </si>
   <si>
     <t>2,67%</t>
   </si>
   <si>
-    <t>3,89%</t>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
   </si>
   <si>
     <t>9,75%</t>
   </si>
   <si>
-    <t>8,76%</t>
+    <t>8,82%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1398,7 +1398,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A83ED1B8-A8AD-4F10-841C-1C45F013288E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A21BAAD-C311-4D51-A3BA-20E53C5CEE8D}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2311,10 +2311,10 @@
         <v>124</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>15</v>
+        <v>125</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M19" s="7">
         <v>271</v>
@@ -2323,13 +2323,13 @@
         <v>274625</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2344,13 +2344,13 @@
         <v>32121</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>131</v>
+        <v>79</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -2583,10 +2583,10 @@
         <v>161</v>
       </c>
       <c r="P24" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2601,13 +2601,13 @@
         <v>11259</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -2622,7 +2622,7 @@
         <v>35</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="M25" s="7">
         <v>11</v>
@@ -2631,13 +2631,13 @@
         <v>11259</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2652,13 +2652,13 @@
         <v>5962</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="F26" s="7" t="s">
-        <v>44</v>
-      </c>
       <c r="G26" s="7" t="s">
-        <v>172</v>
+        <v>26</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -2673,7 +2673,7 @@
         <v>35</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="M26" s="7">
         <v>6</v>
@@ -2682,13 +2682,13 @@
         <v>5962</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="P26" s="7" t="s">
-        <v>174</v>
-      </c>
       <c r="Q26" s="7" t="s">
-        <v>175</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2703,13 +2703,13 @@
         <v>15691</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="G27" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="H27" s="7">
         <v>0</v>
@@ -2724,7 +2724,7 @@
         <v>35</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="M27" s="7">
         <v>14</v>
@@ -2733,13 +2733,13 @@
         <v>15691</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q27" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2795,7 +2795,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -2807,13 +2807,13 @@
         <v>102877</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="H29" s="7">
         <v>75</v>
@@ -2822,13 +2822,13 @@
         <v>77828</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="M29" s="7">
         <v>174</v>
@@ -2837,13 +2837,13 @@
         <v>180705</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2858,13 +2858,13 @@
         <v>20641</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="H30" s="7">
         <v>3</v>
@@ -2873,13 +2873,13 @@
         <v>2926</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="M30" s="7">
         <v>22</v>
@@ -2888,13 +2888,13 @@
         <v>23567</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2909,13 +2909,13 @@
         <v>16712</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="H31" s="7">
         <v>2</v>
@@ -2924,13 +2924,13 @@
         <v>2063</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>34</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="M31" s="7">
         <v>18</v>
@@ -2939,13 +2939,13 @@
         <v>18775</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2960,13 +2960,13 @@
         <v>15788</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>209</v>
+        <v>65</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -2981,7 +2981,7 @@
         <v>35</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="M32" s="7">
         <v>16</v>
@@ -2990,13 +2990,13 @@
         <v>15788</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3052,7 +3052,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -3064,13 +3064,13 @@
         <v>227425</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="H34" s="7">
         <v>159</v>
@@ -3079,13 +3079,13 @@
         <v>170914</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="M34" s="7">
         <v>373</v>
@@ -3094,13 +3094,13 @@
         <v>398339</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3115,13 +3115,13 @@
         <v>43694</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="H35" s="7">
         <v>3</v>
@@ -3130,13 +3130,13 @@
         <v>3127</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="M35" s="7">
         <v>43</v>
@@ -3145,13 +3145,13 @@
         <v>46821</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3166,13 +3166,13 @@
         <v>15517</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="H36" s="7">
         <v>1</v>
@@ -3181,13 +3181,13 @@
         <v>932</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>34</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="M36" s="7">
         <v>15</v>
@@ -3196,13 +3196,13 @@
         <v>16448</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>25</v>
+        <v>238</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>240</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3217,13 +3217,13 @@
         <v>48262</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>243</v>
       </c>
       <c r="H37" s="7">
         <v>4</v>
@@ -3232,13 +3232,13 @@
         <v>4672</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>245</v>
+        <v>81</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="M37" s="7">
         <v>52</v>
@@ -3247,13 +3247,13 @@
         <v>52934</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3309,7 +3309,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -3321,13 +3321,13 @@
         <v>293405</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="H39" s="7">
         <v>202</v>
@@ -3336,13 +3336,13 @@
         <v>211790</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="M39" s="7">
         <v>483</v>
@@ -3351,13 +3351,13 @@
         <v>505196</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3372,13 +3372,13 @@
         <v>58328</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="H40" s="7">
         <v>9</v>
@@ -3387,13 +3387,13 @@
         <v>8953</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="M40" s="7">
         <v>67</v>
@@ -3402,13 +3402,13 @@
         <v>67281</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3423,13 +3423,13 @@
         <v>37285</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>177</v>
+        <v>266</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H41" s="7">
         <v>6</v>
@@ -3438,13 +3438,13 @@
         <v>6263</v>
       </c>
       <c r="J41" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="L41" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="K41" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="L41" s="7" t="s">
-        <v>273</v>
       </c>
       <c r="M41" s="7">
         <v>45</v>
@@ -3453,13 +3453,13 @@
         <v>43549</v>
       </c>
       <c r="O41" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="P41" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q41" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="P41" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="Q41" s="7" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3474,13 +3474,13 @@
         <v>71716</v>
       </c>
       <c r="E42" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="G42" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="F42" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>279</v>
       </c>
       <c r="H42" s="7">
         <v>10</v>
@@ -3489,13 +3489,13 @@
         <v>11035</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>32</v>
+        <v>278</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>281</v>
+        <v>84</v>
       </c>
       <c r="M42" s="7">
         <v>80</v>
@@ -3504,13 +3504,13 @@
         <v>82752</v>
       </c>
       <c r="O42" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="P42" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q42" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="P42" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="Q42" s="7" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3578,13 +3578,13 @@
         <v>1224310</v>
       </c>
       <c r="E44" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="G44" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="F44" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>287</v>
       </c>
       <c r="H44" s="7">
         <v>907</v>
@@ -3593,13 +3593,13 @@
         <v>948825</v>
       </c>
       <c r="J44" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="K44" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="L44" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="K44" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="L44" s="7" t="s">
-        <v>290</v>
       </c>
       <c r="M44" s="7">
         <v>2074</v>
@@ -3608,13 +3608,13 @@
         <v>2173135</v>
       </c>
       <c r="O44" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="P44" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q44" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="P44" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="Q44" s="7" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3629,13 +3629,13 @@
         <v>271153</v>
       </c>
       <c r="E45" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="G45" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>296</v>
       </c>
       <c r="H45" s="7">
         <v>29</v>
@@ -3644,13 +3644,13 @@
         <v>29248</v>
       </c>
       <c r="J45" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="L45" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="K45" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="L45" s="7" t="s">
-        <v>299</v>
       </c>
       <c r="M45" s="7">
         <v>289</v>
@@ -3659,13 +3659,13 @@
         <v>300401</v>
       </c>
       <c r="O45" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="P45" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q45" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="P45" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="Q45" s="7" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -3680,13 +3680,13 @@
         <v>145880</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>237</v>
+        <v>142</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>303</v>
+        <v>210</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="H46" s="7">
         <v>18</v>
@@ -3695,13 +3695,13 @@
         <v>17987</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>196</v>
+        <v>303</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="M46" s="7">
         <v>160</v>
@@ -3710,13 +3710,13 @@
         <v>163867</v>
       </c>
       <c r="O46" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="P46" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="Q46" s="7" t="s">
         <v>307</v>
-      </c>
-      <c r="P46" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="Q46" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3731,13 +3731,13 @@
         <v>257611</v>
       </c>
       <c r="E47" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="F47" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="F47" s="7" t="s">
+      <c r="G47" s="7" t="s">
         <v>310</v>
-      </c>
-      <c r="G47" s="7" t="s">
-        <v>311</v>
       </c>
       <c r="H47" s="7">
         <v>25</v>
@@ -3746,10 +3746,10 @@
         <v>27356</v>
       </c>
       <c r="J47" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="K47" s="7" t="s">
         <v>312</v>
-      </c>
-      <c r="K47" s="7" t="s">
-        <v>229</v>
       </c>
       <c r="L47" s="7" t="s">
         <v>313</v>
@@ -3767,7 +3767,7 @@
         <v>315</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>83</v>
+        <v>268</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3809,7 +3809,7 @@
         <v>2797</v>
       </c>
       <c r="N48" s="7">
-        <v>2922370</v>
+        <v>2922369</v>
       </c>
       <c r="O48" s="7" t="s">
         <v>49</v>

--- a/data/trans_orig/P6515-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P6515-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1091E64F-550A-493C-AFA1-AA44C07BE370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D0A8C33-B3BE-4012-8126-0DC10CAA2E19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6B6A74E9-ECC5-4C69-BC66-8F73725E5289}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{05F66C29-C117-4D24-9F4C-11275B0FE79D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="315">
   <si>
     <t>Población según la conducción de vehículos durante las tareas de su trabajo en 2007 (Tasa respuesta: 42,96%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>63,35%</t>
   </si>
   <si>
-    <t>55,24%</t>
-  </si>
-  <si>
-    <t>70,34%</t>
+    <t>55,68%</t>
+  </si>
+  <si>
+    <t>71,29%</t>
   </si>
   <si>
     <t>93,32%</t>
   </si>
   <si>
-    <t>86,49%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
+    <t>86,85%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
   </si>
   <si>
     <t>75,45%</t>
   </si>
   <si>
-    <t>69,61%</t>
-  </si>
-  <si>
-    <t>80,22%</t>
+    <t>69,67%</t>
+  </si>
+  <si>
+    <t>80,33%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -104,28 +104,28 @@
     <t>20,06%</t>
   </si>
   <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>26,99%</t>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
   </si>
   <si>
     <t>4,77%</t>
   </si>
   <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
   </si>
   <si>
     <t>13,89%</t>
   </si>
   <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
   </si>
   <si>
     <t>Muchas veces</t>
@@ -134,10 +134,10 @@
     <t>8,54%</t>
   </si>
   <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
   </si>
   <si>
     <t>0,0%</t>
@@ -152,10 +152,10 @@
     <t>5,1%</t>
   </si>
   <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
   </si>
   <si>
     <t>Siempre</t>
@@ -164,826 +164,820 @@
     <t>8,05%</t>
   </si>
   <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>52,14%</t>
+  </si>
+  <si>
+    <t>45,61%</t>
+  </si>
+  <si>
+    <t>58,35%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
+  </si>
+  <si>
+    <t>85,42%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>64,82%</t>
+  </si>
+  <si>
+    <t>59,99%</t>
+  </si>
+  <si>
+    <t>70,41%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>27,08%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
     <t>4,6%</t>
   </si>
   <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>52,14%</t>
-  </si>
-  <si>
-    <t>46,33%</t>
-  </si>
-  <si>
-    <t>58,87%</t>
-  </si>
-  <si>
-    <t>91,25%</t>
-  </si>
-  <si>
-    <t>84,68%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>64,82%</t>
-  </si>
-  <si>
-    <t>59,48%</t>
-  </si>
-  <si>
-    <t>69,29%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>72,38%</t>
+  </si>
+  <si>
+    <t>65,35%</t>
+  </si>
+  <si>
+    <t>78,19%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>87,39%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>79,85%</t>
+  </si>
+  <si>
+    <t>74,72%</t>
+  </si>
+  <si>
+    <t>84,05%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>66,37%</t>
+  </si>
+  <si>
+    <t>60,26%</t>
+  </si>
+  <si>
+    <t>71,94%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>87,58%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>76,36%</t>
+  </si>
+  <si>
+    <t>71,67%</t>
+  </si>
+  <si>
+    <t>80,52%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>70,66%</t>
+  </si>
+  <si>
+    <t>62,54%</t>
+  </si>
+  <si>
+    <t>79,37%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>79,76%</t>
+  </si>
+  <si>
+    <t>72,26%</t>
+  </si>
+  <si>
+    <t>85,68%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>65,94%</t>
+  </si>
+  <si>
+    <t>57,28%</t>
+  </si>
+  <si>
+    <t>73,09%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>86,16%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>75,66%</t>
+  </si>
+  <si>
+    <t>69,63%</t>
+  </si>
+  <si>
+    <t>80,63%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
   </si>
   <si>
     <t>10,12%</t>
   </si>
   <si>
-    <t>15,78%</t>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>67,91%</t>
+  </si>
+  <si>
+    <t>62,45%</t>
+  </si>
+  <si>
+    <t>72,7%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>90,46%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>77,42%</t>
+  </si>
+  <si>
+    <t>73,45%</t>
+  </si>
+  <si>
+    <t>80,81%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>63,68%</t>
+  </si>
+  <si>
+    <t>59,0%</t>
+  </si>
+  <si>
+    <t>67,97%</t>
+  </si>
+  <si>
+    <t>88,97%</t>
+  </si>
+  <si>
+    <t>84,16%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>72,3%</t>
+  </si>
+  <si>
+    <t>68,6%</t>
+  </si>
+  <si>
+    <t>75,56%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>64,47%</t>
+  </si>
+  <si>
+    <t>62,39%</t>
+  </si>
+  <si>
+    <t>66,8%</t>
+  </si>
+  <si>
+    <t>92,71%</t>
+  </si>
+  <si>
+    <t>90,8%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>74,36%</t>
+  </si>
+  <si>
+    <t>72,65%</t>
+  </si>
+  <si>
+    <t>75,95%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
   </si>
   <si>
     <t>12,44%</t>
   </si>
   <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>72,38%</t>
-  </si>
-  <si>
-    <t>65,02%</t>
-  </si>
-  <si>
-    <t>78,04%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>87,28%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>79,85%</t>
-  </si>
-  <si>
-    <t>74,8%</t>
-  </si>
-  <si>
-    <t>84,24%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>66,37%</t>
-  </si>
-  <si>
-    <t>59,63%</t>
-  </si>
-  <si>
-    <t>72,58%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>87,03%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>76,36%</t>
-  </si>
-  <si>
-    <t>71,83%</t>
-  </si>
-  <si>
-    <t>80,46%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
   </si>
   <si>
     <t>3,97%</t>
   </si>
   <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
   </si>
   <si>
     <t>7,68%</t>
   </si>
   <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>70,66%</t>
-  </si>
-  <si>
-    <t>61,65%</t>
-  </si>
-  <si>
-    <t>78,94%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>79,76%</t>
-  </si>
-  <si>
-    <t>85,41%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>65,94%</t>
-  </si>
-  <si>
-    <t>57,89%</t>
-  </si>
-  <si>
-    <t>72,54%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>86,65%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>75,66%</t>
-  </si>
-  <si>
-    <t>70,25%</t>
-  </si>
-  <si>
-    <t>81,09%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>67,91%</t>
-  </si>
-  <si>
-    <t>61,93%</t>
-  </si>
-  <si>
-    <t>72,8%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>90,91%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>77,42%</t>
-  </si>
-  <si>
-    <t>73,64%</t>
-  </si>
-  <si>
-    <t>81,25%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>63,68%</t>
-  </si>
-  <si>
-    <t>59,15%</t>
-  </si>
-  <si>
-    <t>68,37%</t>
-  </si>
-  <si>
-    <t>88,97%</t>
-  </si>
-  <si>
-    <t>84,11%</t>
-  </si>
-  <si>
-    <t>92,59%</t>
-  </si>
-  <si>
-    <t>72,3%</t>
-  </si>
-  <si>
-    <t>68,81%</t>
-  </si>
-  <si>
-    <t>75,65%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>64,47%</t>
-  </si>
-  <si>
-    <t>62,28%</t>
-  </si>
-  <si>
-    <t>66,78%</t>
-  </si>
-  <si>
-    <t>92,71%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>74,36%</t>
-  </si>
-  <si>
-    <t>72,75%</t>
-  </si>
-  <si>
-    <t>75,88%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
   </si>
   <si>
     <t>5,61%</t>
   </si>
   <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
   </si>
   <si>
     <t>13,57%</t>
   </si>
   <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
   </si>
   <si>
     <t>2,67%</t>
   </si>
   <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
+    <t>3,92%</t>
   </si>
   <si>
     <t>9,75%</t>
   </si>
   <si>
-    <t>8,82%</t>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1398,7 +1392,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A21BAAD-C311-4D51-A3BA-20E53C5CEE8D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D27D8E8-96B8-4D13-9AC8-AE7E06D2EC35}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1806,7 +1800,7 @@
         <v>248</v>
       </c>
       <c r="N9" s="7">
-        <v>259499</v>
+        <v>259500</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>57</v>
@@ -2010,7 +2004,7 @@
         <v>378</v>
       </c>
       <c r="N13" s="7">
-        <v>400331</v>
+        <v>400332</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>49</v>
@@ -2219,13 +2213,13 @@
         <v>26547</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2281,7 +2275,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2293,13 +2287,13 @@
         <v>148377</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="H19" s="7">
         <v>127</v>
@@ -2308,13 +2302,13 @@
         <v>126248</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="M19" s="7">
         <v>271</v>
@@ -2323,13 +2317,13 @@
         <v>274625</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2344,13 +2338,13 @@
         <v>32121</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -2583,10 +2577,10 @@
         <v>161</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>123</v>
+        <v>162</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2601,13 +2595,13 @@
         <v>11259</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -2622,7 +2616,7 @@
         <v>35</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M25" s="7">
         <v>11</v>
@@ -2631,13 +2625,13 @@
         <v>11259</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2652,13 +2646,13 @@
         <v>5962</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>171</v>
+        <v>36</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>26</v>
+        <v>172</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -2673,7 +2667,7 @@
         <v>35</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M26" s="7">
         <v>6</v>
@@ -2682,13 +2676,13 @@
         <v>5962</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>82</v>
+        <v>175</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2703,13 +2697,13 @@
         <v>15691</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H27" s="7">
         <v>0</v>
@@ -2724,7 +2718,7 @@
         <v>35</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M27" s="7">
         <v>14</v>
@@ -2733,13 +2727,13 @@
         <v>15691</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2795,7 +2789,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -2807,13 +2801,13 @@
         <v>102877</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="H29" s="7">
         <v>75</v>
@@ -2822,13 +2816,13 @@
         <v>77828</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="M29" s="7">
         <v>174</v>
@@ -2837,13 +2831,13 @@
         <v>180705</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2858,13 +2852,13 @@
         <v>20641</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>190</v>
+        <v>98</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H30" s="7">
         <v>3</v>
@@ -2873,13 +2867,13 @@
         <v>2926</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M30" s="7">
         <v>22</v>
@@ -2888,13 +2882,13 @@
         <v>23567</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2909,10 +2903,10 @@
         <v>16712</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>200</v>
+        <v>101</v>
       </c>
       <c r="G31" s="7" t="s">
         <v>201</v>
@@ -2960,10 +2954,10 @@
         <v>15788</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>65</v>
+        <v>207</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>207</v>
+        <v>153</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>208</v>
@@ -3181,13 +3175,13 @@
         <v>932</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>34</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="M36" s="7">
         <v>15</v>
@@ -3196,13 +3190,13 @@
         <v>16448</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="P36" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="P36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3235,10 +3229,10 @@
         <v>242</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>81</v>
+        <v>243</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M37" s="7">
         <v>52</v>
@@ -3247,10 +3241,10 @@
         <v>52934</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>245</v>
+        <v>177</v>
       </c>
       <c r="Q37" s="7" t="s">
         <v>246</v>
@@ -3375,10 +3369,10 @@
         <v>257</v>
       </c>
       <c r="F40" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="G40" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>259</v>
       </c>
       <c r="H40" s="7">
         <v>9</v>
@@ -3387,13 +3381,13 @@
         <v>8953</v>
       </c>
       <c r="J40" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="K40" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="K40" s="7" t="s">
+      <c r="L40" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="L40" s="7" t="s">
-        <v>262</v>
       </c>
       <c r="M40" s="7">
         <v>67</v>
@@ -3402,13 +3396,13 @@
         <v>67281</v>
       </c>
       <c r="O40" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q40" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="P40" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q40" s="7" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3423,13 +3417,13 @@
         <v>37285</v>
       </c>
       <c r="E41" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="G41" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>268</v>
       </c>
       <c r="H41" s="7">
         <v>6</v>
@@ -3438,13 +3432,13 @@
         <v>6263</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>270</v>
+        <v>243</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="M41" s="7">
         <v>45</v>
@@ -3453,13 +3447,13 @@
         <v>43549</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>273</v>
+        <v>73</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3474,13 +3468,13 @@
         <v>71716</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="H42" s="7">
         <v>10</v>
@@ -3489,13 +3483,13 @@
         <v>11035</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>84</v>
+        <v>276</v>
       </c>
       <c r="M42" s="7">
         <v>80</v>
@@ -3504,13 +3498,13 @@
         <v>82752</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3578,13 +3572,13 @@
         <v>1224310</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="H44" s="7">
         <v>907</v>
@@ -3593,13 +3587,13 @@
         <v>948825</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="M44" s="7">
         <v>2074</v>
@@ -3608,13 +3602,13 @@
         <v>2173135</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3629,13 +3623,13 @@
         <v>271153</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="H45" s="7">
         <v>29</v>
@@ -3644,13 +3638,13 @@
         <v>29248</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="M45" s="7">
         <v>289</v>
@@ -3659,13 +3653,13 @@
         <v>300401</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -3680,13 +3674,13 @@
         <v>145880</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>142</v>
+        <v>298</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>210</v>
+        <v>299</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H46" s="7">
         <v>18</v>
@@ -3695,13 +3689,13 @@
         <v>17987</v>
       </c>
       <c r="J46" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="L46" s="7" t="s">
         <v>302</v>
-      </c>
-      <c r="K46" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="L46" s="7" t="s">
-        <v>304</v>
       </c>
       <c r="M46" s="7">
         <v>160</v>
@@ -3710,13 +3704,13 @@
         <v>163867</v>
       </c>
       <c r="O46" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="P46" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q46" s="7" t="s">
         <v>305</v>
-      </c>
-      <c r="P46" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="Q46" s="7" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3731,13 +3725,13 @@
         <v>257611</v>
       </c>
       <c r="E47" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="G47" s="7" t="s">
         <v>308</v>
-      </c>
-      <c r="F47" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="G47" s="7" t="s">
-        <v>310</v>
       </c>
       <c r="H47" s="7">
         <v>25</v>
@@ -3746,13 +3740,13 @@
         <v>27356</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>312</v>
+        <v>260</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="M47" s="7">
         <v>274</v>
@@ -3761,13 +3755,13 @@
         <v>284967</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>268</v>
+        <v>313</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3823,7 +3817,7 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6515-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P6515-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D0A8C33-B3BE-4012-8126-0DC10CAA2E19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4D0F9DC5-14E8-4DC6-AF43-CE61B062CC27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{05F66C29-C117-4D24-9F4C-11275B0FE79D}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{8EC0897B-57C4-4F21-908F-9569FBE6F8AE}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -1392,7 +1392,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D27D8E8-96B8-4D13-9AC8-AE7E06D2EC35}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8692321-B49B-40D4-97C4-E3EBADA574A0}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1800,7 +1800,7 @@
         <v>248</v>
       </c>
       <c r="N9" s="7">
-        <v>259500</v>
+        <v>259499</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>57</v>
@@ -2004,7 +2004,7 @@
         <v>378</v>
       </c>
       <c r="N13" s="7">
-        <v>400332</v>
+        <v>400331</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>49</v>
